--- a/Docs/GRUPOS GDI II B1 Unidad 2 y 3.xlsx
+++ b/Docs/GRUPOS GDI II B1 Unidad 2 y 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCV\UCV_GDI-2_202202-B1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91AA7009-7576-4A9A-9847-4A974BD43082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595308A-85F1-453C-91BE-5BE507B0D9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -220,6 +220,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -314,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -356,6 +362,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -365,6 +374,12 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,14 +389,11 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -720,31 +732,31 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
@@ -754,7 +766,7 @@
       <c r="C4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
       <c r="F4" s="7">
@@ -763,7 +775,7 @@
       <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="16">
         <v>6</v>
       </c>
     </row>
@@ -775,7 +787,7 @@
       <c r="C5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="10"/>
       <c r="F5" s="7">
         <v>27</v>
@@ -783,7 +795,7 @@
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -793,14 +805,14 @@
       <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="19"/>
       <c r="F6" s="7">
         <v>28</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
@@ -810,14 +822,14 @@
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22"/>
+      <c r="D7" s="19"/>
       <c r="F7" s="7">
         <v>29</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
@@ -827,14 +839,14 @@
       <c r="C8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="22"/>
+      <c r="D8" s="19"/>
       <c r="F8" s="7">
         <v>30</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
@@ -844,7 +856,7 @@
       <c r="C9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
       <c r="F9" s="13">
@@ -853,7 +865,7 @@
       <c r="G9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="21">
         <v>7</v>
       </c>
     </row>
@@ -865,14 +877,14 @@
       <c r="C10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="20"/>
       <c r="F10" s="13">
         <v>32</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
@@ -882,14 +894,14 @@
       <c r="C11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="20"/>
       <c r="F11" s="13">
         <v>33</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
@@ -899,14 +911,14 @@
       <c r="C12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="20"/>
       <c r="F12" s="13">
         <v>34</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
@@ -916,12 +928,12 @@
       <c r="C13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="20"/>
       <c r="F13" s="13">
         <v>35</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="20"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
@@ -931,7 +943,7 @@
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>3</v>
       </c>
       <c r="F14" s="7">
@@ -940,7 +952,7 @@
       <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="16">
         <v>8</v>
       </c>
     </row>
@@ -952,14 +964,14 @@
       <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="22"/>
+      <c r="D15" s="19"/>
       <c r="F15" s="7">
         <v>37</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -969,14 +981,14 @@
       <c r="C16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="19"/>
       <c r="F16" s="7">
         <v>38</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
@@ -986,14 +998,14 @@
       <c r="C17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="19"/>
       <c r="F17" s="7">
         <v>39</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
@@ -1003,12 +1015,12 @@
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="19"/>
       <c r="F18" s="7">
         <v>40</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
@@ -1018,7 +1030,7 @@
       <c r="C19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="20">
         <v>4</v>
       </c>
       <c r="F19" s="13">
@@ -1027,7 +1039,7 @@
       <c r="G19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="21">
         <v>9</v>
       </c>
     </row>
@@ -1039,14 +1051,14 @@
       <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="23"/>
+      <c r="D20" s="20"/>
       <c r="F20" s="13">
         <v>42</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
@@ -1056,14 +1068,14 @@
       <c r="C21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="20"/>
       <c r="F21" s="13">
         <v>43</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
@@ -1073,14 +1085,14 @@
       <c r="C22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="20"/>
       <c r="F22" s="13">
         <v>44</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
@@ -1090,14 +1102,14 @@
       <c r="C23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="20"/>
       <c r="F23" s="13">
         <v>45</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="20"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
@@ -1107,16 +1119,16 @@
       <c r="C24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="16">
         <v>5</v>
       </c>
       <c r="F24" s="7">
         <v>46</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="16">
         <v>10</v>
       </c>
     </row>
@@ -1128,14 +1140,14 @@
       <c r="C25" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="17"/>
       <c r="F25" s="7">
         <v>47</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
@@ -1145,14 +1157,14 @@
       <c r="C26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="17"/>
       <c r="F26" s="7">
         <v>48</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="16"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12"/>
@@ -1162,14 +1174,14 @@
       <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="16"/>
+      <c r="D27" s="17"/>
       <c r="F27" s="7">
         <v>49</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="16"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12"/>
@@ -1179,12 +1191,12 @@
       <c r="C28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="18"/>
       <c r="F28" s="7">
         <v>50</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:8" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
